--- a/docs/Sprint A Backlog.xlsx
+++ b/docs/Sprint A Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredmatthews/McGill/McGill Winter 2023/ECSE 428/StuddyBuddy/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Projects\StuddyBuddy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35977888-36E3-154B-AF9D-21132FB335FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8F32E-38F3-4364-B5B1-7E5E7F91C65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{177D8CA5-E240-134E-950F-C3FEAC50FB41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{177D8CA5-E240-134E-950F-C3FEAC50FB41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -441,161 +442,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E8DC7-388D-F34A-AC00-D1421288C589}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="79.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>